--- a/data/pca/factorExposure/factorExposure_2011-08-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2011-08-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,24 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
+  </si>
+  <si>
+    <t>factor11</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +713,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:L104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:12">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +735,66 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B2">
-        <v>0.02417036228363454</v>
+        <v>0.01824456909008286</v>
       </c>
       <c r="C2">
-        <v>0.01577640603903437</v>
+        <v>-0.008405908856963473</v>
       </c>
       <c r="D2">
-        <v>0.03659219050328275</v>
+        <v>0.02675365417782555</v>
       </c>
       <c r="E2">
-        <v>0.06403051547063472</v>
+        <v>0.03516624268825001</v>
       </c>
       <c r="F2">
-        <v>-0.00920639406244061</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.0127293323923721</v>
+      </c>
+      <c r="G2">
+        <v>-0.02189219474683049</v>
+      </c>
+      <c r="H2">
+        <v>0.02257932418389108</v>
+      </c>
+      <c r="I2">
+        <v>0.03067359841047926</v>
+      </c>
+      <c r="J2">
+        <v>0.01268254036005907</v>
+      </c>
+      <c r="K2">
+        <v>-0.07255261175866408</v>
+      </c>
+      <c r="L2">
+        <v>0.02494062881753733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +811,66 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B4">
-        <v>0.0714532882158208</v>
+        <v>0.0927575253138383</v>
       </c>
       <c r="C4">
-        <v>0.04874919898692702</v>
+        <v>-0.05973026163761579</v>
       </c>
       <c r="D4">
-        <v>0.04301210092841921</v>
+        <v>0.01210545178615956</v>
       </c>
       <c r="E4">
-        <v>0.02165882917300918</v>
+        <v>0.05161954384530942</v>
       </c>
       <c r="F4">
-        <v>-0.04232521764090896</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.09069805269307188</v>
+      </c>
+      <c r="G4">
+        <v>-0.04272644127447778</v>
+      </c>
+      <c r="H4">
+        <v>0.01665225687963819</v>
+      </c>
+      <c r="I4">
+        <v>-0.07372668181305461</v>
+      </c>
+      <c r="J4">
+        <v>-0.0238918448760827</v>
+      </c>
+      <c r="K4">
+        <v>0.04280718877264648</v>
+      </c>
+      <c r="L4">
+        <v>-0.0398908936673059</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +887,446 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B6">
-        <v>0.1259649875481924</v>
+        <v>0.1313682064232748</v>
       </c>
       <c r="C6">
-        <v>0.01617399242284877</v>
+        <v>-0.02849954399450367</v>
       </c>
       <c r="D6">
-        <v>0.04357609579800454</v>
+        <v>0.04637025435060096</v>
       </c>
       <c r="E6">
-        <v>0.07280426757724105</v>
+        <v>0.01713485840633626</v>
       </c>
       <c r="F6">
-        <v>-0.05573227283026386</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.06898379994581685</v>
+      </c>
+      <c r="G6">
+        <v>-0.05323185366587943</v>
+      </c>
+      <c r="H6">
+        <v>-0.1539705243413881</v>
+      </c>
+      <c r="I6">
+        <v>-0.02455404802200552</v>
+      </c>
+      <c r="J6">
+        <v>-0.4428342842642274</v>
+      </c>
+      <c r="K6">
+        <v>0.1369218709848088</v>
+      </c>
+      <c r="L6">
+        <v>0.06807849589700735</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B7">
-        <v>0.06461714242640111</v>
+        <v>0.06715451347195441</v>
       </c>
       <c r="C7">
-        <v>0.02095541949199115</v>
+        <v>-0.05474902902314534</v>
       </c>
       <c r="D7">
-        <v>0.04133865478255377</v>
+        <v>0.03550877518893468</v>
       </c>
       <c r="E7">
-        <v>0.05557514532800197</v>
+        <v>0.03994852293295442</v>
       </c>
       <c r="F7">
-        <v>-0.02739196620834409</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.0381856722384628</v>
+      </c>
+      <c r="G7">
+        <v>0.005531767269373688</v>
+      </c>
+      <c r="H7">
+        <v>0.0006562594715877649</v>
+      </c>
+      <c r="I7">
+        <v>-0.04711595420494492</v>
+      </c>
+      <c r="J7">
+        <v>0.06223644786715338</v>
+      </c>
+      <c r="K7">
+        <v>0.006020483628051332</v>
+      </c>
+      <c r="L7">
+        <v>-0.05920906230396933</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B8">
-        <v>0.02646364220689576</v>
+        <v>0.03554211858016113</v>
       </c>
       <c r="C8">
-        <v>0.03151421054768905</v>
+        <v>-0.01436271367674725</v>
       </c>
       <c r="D8">
-        <v>0.00458236784951996</v>
+        <v>-0.002952996277829664</v>
       </c>
       <c r="E8">
-        <v>0.04468514926415681</v>
+        <v>0.07026015343950526</v>
       </c>
       <c r="F8">
-        <v>-0.06168670580127204</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.04433533452058597</v>
+      </c>
+      <c r="G8">
+        <v>-0.06555703199848439</v>
+      </c>
+      <c r="H8">
+        <v>-0.006120715754435971</v>
+      </c>
+      <c r="I8">
+        <v>-0.08902687738067036</v>
+      </c>
+      <c r="J8">
+        <v>-0.01214602062999913</v>
+      </c>
+      <c r="K8">
+        <v>0.06240432109065742</v>
+      </c>
+      <c r="L8">
+        <v>-0.02053115106037812</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B9">
-        <v>0.07546249722810443</v>
+        <v>0.08448809018984178</v>
       </c>
       <c r="C9">
-        <v>0.06028888096847457</v>
+        <v>-0.0579601256145443</v>
       </c>
       <c r="D9">
-        <v>0.04579048922615423</v>
+        <v>0.01486953629850215</v>
       </c>
       <c r="E9">
-        <v>0.02525268335597931</v>
+        <v>0.03804202536160739</v>
       </c>
       <c r="F9">
-        <v>-0.0291976859186775</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07587163448294272</v>
+      </c>
+      <c r="G9">
+        <v>-0.05206641706784907</v>
+      </c>
+      <c r="H9">
+        <v>0.01218698772559709</v>
+      </c>
+      <c r="I9">
+        <v>-0.08600529982148725</v>
+      </c>
+      <c r="J9">
+        <v>-0.01021010803569861</v>
+      </c>
+      <c r="K9">
+        <v>0.02454181035474039</v>
+      </c>
+      <c r="L9">
+        <v>-0.01351949898314779</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B10">
-        <v>0.03601792703553999</v>
+        <v>0.09152785372953982</v>
       </c>
       <c r="C10">
-        <v>-0.1449480536177833</v>
+        <v>0.1790615809970338</v>
       </c>
       <c r="D10">
-        <v>-0.02716840557852687</v>
+        <v>0.005725645121443605</v>
       </c>
       <c r="E10">
-        <v>0.0712593411910509</v>
+        <v>0.05603819696625946</v>
       </c>
       <c r="F10">
-        <v>-0.0362230063146038</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.01329419453149497</v>
+      </c>
+      <c r="G10">
+        <v>0.04281616773707729</v>
+      </c>
+      <c r="H10">
+        <v>-0.01780241299314922</v>
+      </c>
+      <c r="I10">
+        <v>0.01349204920077544</v>
+      </c>
+      <c r="J10">
+        <v>0.03882220707246961</v>
+      </c>
+      <c r="K10">
+        <v>-0.03945447981279747</v>
+      </c>
+      <c r="L10">
+        <v>-0.0161600632141514</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B11">
-        <v>0.06903739256096582</v>
+        <v>0.06892622934714797</v>
       </c>
       <c r="C11">
-        <v>0.06309978147449428</v>
+        <v>-0.05902191145360593</v>
       </c>
       <c r="D11">
-        <v>0.05195086778352168</v>
+        <v>0.02969976493298226</v>
       </c>
       <c r="E11">
-        <v>0.03378464768977844</v>
+        <v>0.02352456147493591</v>
       </c>
       <c r="F11">
-        <v>0.007286714429424554</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.05409219737769285</v>
+      </c>
+      <c r="G11">
+        <v>-0.07504929147305071</v>
+      </c>
+      <c r="H11">
+        <v>0.01034815377934158</v>
+      </c>
+      <c r="I11">
+        <v>-0.08194581526658938</v>
+      </c>
+      <c r="J11">
+        <v>0.08750486727755845</v>
+      </c>
+      <c r="K11">
+        <v>-0.0527327969354366</v>
+      </c>
+      <c r="L11">
+        <v>0.02539649697889235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B12">
-        <v>0.06913461591585743</v>
+        <v>0.07127260584408251</v>
       </c>
       <c r="C12">
-        <v>0.04096423331026919</v>
+        <v>-0.05103908829158969</v>
       </c>
       <c r="D12">
-        <v>0.0380325382632701</v>
+        <v>0.009342051761594515</v>
       </c>
       <c r="E12">
-        <v>0.02213105907297241</v>
+        <v>0.02172611735009092</v>
       </c>
       <c r="F12">
-        <v>-0.01352897198802518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.04796212603962702</v>
+      </c>
+      <c r="G12">
+        <v>-0.07363376973848662</v>
+      </c>
+      <c r="H12">
+        <v>0.005641143510743276</v>
+      </c>
+      <c r="I12">
+        <v>-0.1005533288812534</v>
+      </c>
+      <c r="J12">
+        <v>0.06555125916601907</v>
+      </c>
+      <c r="K12">
+        <v>-0.05596987863418822</v>
+      </c>
+      <c r="L12">
+        <v>-0.02331550536378533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B13">
-        <v>0.07775318976071802</v>
+        <v>0.06278768375248746</v>
       </c>
       <c r="C13">
-        <v>0.03654580066322847</v>
+        <v>-0.04290940951286388</v>
       </c>
       <c r="D13">
-        <v>0.006231812849321967</v>
+        <v>-0.01766256898049064</v>
       </c>
       <c r="E13">
-        <v>0.02576403879945787</v>
+        <v>0.03532195716054838</v>
       </c>
       <c r="F13">
-        <v>-0.02129378903254155</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.006163013432697809</v>
+      </c>
+      <c r="G13">
+        <v>-0.04103657176279193</v>
+      </c>
+      <c r="H13">
+        <v>0.01230469921255341</v>
+      </c>
+      <c r="I13">
+        <v>-0.05845803207974325</v>
+      </c>
+      <c r="J13">
+        <v>0.009145577356031383</v>
+      </c>
+      <c r="K13">
+        <v>0.05659421665160751</v>
+      </c>
+      <c r="L13">
+        <v>-0.05455592331957922</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14">
-        <v>0.03493619414199948</v>
+        <v>0.04324572076706905</v>
       </c>
       <c r="C14">
-        <v>0.001066157055883177</v>
+        <v>-0.01610118779053304</v>
       </c>
       <c r="D14">
-        <v>0.04017075021677431</v>
+        <v>0.01718785290818508</v>
       </c>
       <c r="E14">
-        <v>0.006882460920784003</v>
+        <v>0.007928325373826659</v>
       </c>
       <c r="F14">
-        <v>-0.01588659517249424</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.05634295789175755</v>
+      </c>
+      <c r="G14">
+        <v>-0.02440267522121787</v>
+      </c>
+      <c r="H14">
+        <v>0.04440973969377691</v>
+      </c>
+      <c r="I14">
+        <v>-0.06429015589646885</v>
+      </c>
+      <c r="J14">
+        <v>-0.01442632985834722</v>
+      </c>
+      <c r="K14">
+        <v>0.04338316731462883</v>
+      </c>
+      <c r="L14">
+        <v>-0.01104211624967108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B15">
-        <v>0.04704771918584114</v>
+        <v>0.03841616588681393</v>
       </c>
       <c r="C15">
-        <v>0.006400955178819407</v>
+        <v>-0.01347267665064549</v>
       </c>
       <c r="D15">
-        <v>-0.008880618788279391</v>
+        <v>-0.02278446075809551</v>
       </c>
       <c r="E15">
-        <v>0.004583863414650513</v>
+        <v>0.005694193275365289</v>
       </c>
       <c r="F15">
-        <v>-0.02975474987977631</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>-0.01405388714638513</v>
+      </c>
+      <c r="G15">
+        <v>-0.01052244996353357</v>
+      </c>
+      <c r="H15">
+        <v>0.003060898072724513</v>
+      </c>
+      <c r="I15">
+        <v>-0.0355751002490141</v>
+      </c>
+      <c r="J15">
+        <v>-0.01665824068018912</v>
+      </c>
+      <c r="K15">
+        <v>0.06086738499266654</v>
+      </c>
+      <c r="L15">
+        <v>-0.03088119394316508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B16">
-        <v>0.05702959142887323</v>
+        <v>0.06982096402991904</v>
       </c>
       <c r="C16">
-        <v>0.0580349696775788</v>
+        <v>-0.06394005154173088</v>
       </c>
       <c r="D16">
-        <v>0.04417212191018224</v>
+        <v>0.01632577657028127</v>
       </c>
       <c r="E16">
-        <v>0.01514796684609675</v>
+        <v>0.02756727108743131</v>
       </c>
       <c r="F16">
-        <v>-0.02211813079081747</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.06604932708098349</v>
+      </c>
+      <c r="G16">
+        <v>-0.04854626319551558</v>
+      </c>
+      <c r="H16">
+        <v>0.01057508649887789</v>
+      </c>
+      <c r="I16">
+        <v>-0.0859014827605722</v>
+      </c>
+      <c r="J16">
+        <v>0.0743385536261375</v>
+      </c>
+      <c r="K16">
+        <v>-0.04013600448311962</v>
+      </c>
+      <c r="L16">
+        <v>0.0148942259693205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1343,28 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1381,28 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1419,294 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B20">
-        <v>0.0563590844213219</v>
+        <v>0.05215396921513</v>
       </c>
       <c r="C20">
-        <v>0.04589102836852471</v>
+        <v>-0.03846558288292171</v>
       </c>
       <c r="D20">
-        <v>0.006832638689683809</v>
+        <v>0.0133089240677125</v>
       </c>
       <c r="E20">
-        <v>0.0296088253614319</v>
+        <v>0.02262400879814814</v>
       </c>
       <c r="F20">
-        <v>-0.01380258875780471</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.009954135971490814</v>
+      </c>
+      <c r="G20">
+        <v>-0.05541700100973055</v>
+      </c>
+      <c r="H20">
+        <v>0.02821291813337086</v>
+      </c>
+      <c r="I20">
+        <v>-0.112849188250836</v>
+      </c>
+      <c r="J20">
+        <v>0.01463091525124494</v>
+      </c>
+      <c r="K20">
+        <v>-0.01018125623302074</v>
+      </c>
+      <c r="L20">
+        <v>-0.05331207215519809</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="B21">
-        <v>0.03016740003891184</v>
+        <v>0.02673173007067519</v>
       </c>
       <c r="C21">
-        <v>0.02950445285236936</v>
+        <v>-0.01814934387639509</v>
       </c>
       <c r="D21">
-        <v>-0.04889973185527551</v>
+        <v>-0.03450919140536434</v>
       </c>
       <c r="E21">
-        <v>0.01460300051736213</v>
+        <v>0.03335396092377281</v>
       </c>
       <c r="F21">
-        <v>-0.06549912260781693</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.002197820913239305</v>
+      </c>
+      <c r="G21">
+        <v>-0.02397917891398359</v>
+      </c>
+      <c r="H21">
+        <v>-0.07520525417428468</v>
+      </c>
+      <c r="I21">
+        <v>-0.05347125294114503</v>
+      </c>
+      <c r="J21">
+        <v>-0.01612272221966363</v>
+      </c>
+      <c r="K21">
+        <v>0.0753357084441052</v>
+      </c>
+      <c r="L21">
+        <v>-0.02361667085823649</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>0.1011535923045945</v>
+        <v>0.08034469606532087</v>
       </c>
       <c r="C22">
-        <v>0.1218623230833271</v>
+        <v>-0.0900760402307807</v>
       </c>
       <c r="D22">
-        <v>-0.1361561429866169</v>
+        <v>-0.4686059310991191</v>
       </c>
       <c r="E22">
-        <v>-0.0193325000030711</v>
+        <v>0.2958490170788421</v>
       </c>
       <c r="F22">
-        <v>-0.4191586497074852</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>-0.1390394343692336</v>
+      </c>
+      <c r="G22">
+        <v>0.3009473843240838</v>
+      </c>
+      <c r="H22">
+        <v>-0.02142190716846959</v>
+      </c>
+      <c r="I22">
+        <v>0.1903749924529604</v>
+      </c>
+      <c r="J22">
+        <v>-0.03193532575187451</v>
+      </c>
+      <c r="K22">
+        <v>-0.04071677569141564</v>
+      </c>
+      <c r="L22">
+        <v>-0.03674254769702998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B23">
-        <v>0.1016790712459825</v>
+        <v>0.08101359898069285</v>
       </c>
       <c r="C23">
-        <v>0.1206439947890083</v>
+        <v>-0.09017028039202393</v>
       </c>
       <c r="D23">
-        <v>-0.136573469452883</v>
+        <v>-0.4699957423512462</v>
       </c>
       <c r="E23">
-        <v>-0.01865146270195456</v>
+        <v>0.2980196729553791</v>
       </c>
       <c r="F23">
-        <v>-0.4199503974241723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>-0.1417429761784949</v>
+      </c>
+      <c r="G23">
+        <v>0.2971166967609853</v>
+      </c>
+      <c r="H23">
+        <v>-0.02095377650275066</v>
+      </c>
+      <c r="I23">
+        <v>0.1909174481955289</v>
+      </c>
+      <c r="J23">
+        <v>-0.03664745440994367</v>
+      </c>
+      <c r="K23">
+        <v>-0.04040401084140388</v>
+      </c>
+      <c r="L23">
+        <v>-0.03317839466832631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="B24">
-        <v>0.07751585292276626</v>
+        <v>0.07759057618716546</v>
       </c>
       <c r="C24">
-        <v>0.05744455086217613</v>
+        <v>-0.06289171401012732</v>
       </c>
       <c r="D24">
-        <v>0.03942651216860159</v>
+        <v>0.01114255239177902</v>
       </c>
       <c r="E24">
-        <v>0.03748020585544132</v>
+        <v>0.0351087768035376</v>
       </c>
       <c r="F24">
-        <v>-0.02978189144909238</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.06349004318868559</v>
+      </c>
+      <c r="G24">
+        <v>-0.07206105491496503</v>
+      </c>
+      <c r="H24">
+        <v>0.001395278805881576</v>
+      </c>
+      <c r="I24">
+        <v>-0.08485139320928753</v>
+      </c>
+      <c r="J24">
+        <v>0.05458321878339992</v>
+      </c>
+      <c r="K24">
+        <v>-0.04695797178563454</v>
+      </c>
+      <c r="L24">
+        <v>0.004149304636103913</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B25">
-        <v>0.07311512308138317</v>
+        <v>0.07509821829509369</v>
       </c>
       <c r="C25">
-        <v>0.0360155183468831</v>
+        <v>-0.04204109951143231</v>
       </c>
       <c r="D25">
-        <v>0.04060012847947169</v>
+        <v>0.01833703759355403</v>
       </c>
       <c r="E25">
-        <v>0.04473271334041642</v>
+        <v>0.0341481421745773</v>
       </c>
       <c r="F25">
-        <v>-0.04509320216188947</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.06873826025520759</v>
+      </c>
+      <c r="G25">
+        <v>-0.06664756420887666</v>
+      </c>
+      <c r="H25">
+        <v>0.02123175441721376</v>
+      </c>
+      <c r="I25">
+        <v>-0.1004780380024647</v>
+      </c>
+      <c r="J25">
+        <v>0.05641022477099039</v>
+      </c>
+      <c r="K25">
+        <v>-0.07219427312922339</v>
+      </c>
+      <c r="L25">
+        <v>0.01323218319185771</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B26">
-        <v>0.04911158248327357</v>
+        <v>0.04401320333911667</v>
       </c>
       <c r="C26">
-        <v>0.02483504654652978</v>
+        <v>-0.02346530309062751</v>
       </c>
       <c r="D26">
-        <v>0.004711462313354203</v>
+        <v>-0.01920562343815437</v>
       </c>
       <c r="E26">
-        <v>0.03740686316792498</v>
+        <v>0.0163653618444251</v>
       </c>
       <c r="F26">
-        <v>0.0101396864595281</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.005428129392903261</v>
+      </c>
+      <c r="G26">
+        <v>-0.02534230651933061</v>
+      </c>
+      <c r="H26">
+        <v>0.009299390215823907</v>
+      </c>
+      <c r="I26">
+        <v>-0.05138349505963158</v>
+      </c>
+      <c r="J26">
+        <v>0.01430766477663719</v>
+      </c>
+      <c r="K26">
+        <v>0.1160980435894122</v>
+      </c>
+      <c r="L26">
+        <v>-0.03516987991817975</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1723,370 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B28">
-        <v>0.07505745279476177</v>
+        <v>0.115788988887935</v>
       </c>
       <c r="C28">
-        <v>-0.298784294339022</v>
+        <v>0.2969725690674744</v>
       </c>
       <c r="D28">
-        <v>-0.02603520659046986</v>
+        <v>-0.007625623115765135</v>
       </c>
       <c r="E28">
-        <v>0.07713537333683734</v>
+        <v>0.03584461220187245</v>
       </c>
       <c r="F28">
-        <v>-0.002418012443713007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.001441160875122792</v>
+      </c>
+      <c r="G28">
+        <v>0.00456773017863445</v>
+      </c>
+      <c r="H28">
+        <v>-0.03645055693169505</v>
+      </c>
+      <c r="I28">
+        <v>0.01355268428727452</v>
+      </c>
+      <c r="J28">
+        <v>0.01852395681656517</v>
+      </c>
+      <c r="K28">
+        <v>0.05907344273045998</v>
+      </c>
+      <c r="L28">
+        <v>-0.01832358882911914</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B29">
-        <v>0.04832344116094929</v>
+        <v>0.04744688839045137</v>
       </c>
       <c r="C29">
-        <v>-0.001269324535264566</v>
+        <v>-0.01724294888631342</v>
       </c>
       <c r="D29">
-        <v>0.01994222885007125</v>
+        <v>0.006174036846891187</v>
       </c>
       <c r="E29">
-        <v>0.01199351599383347</v>
+        <v>0.02301562933300054</v>
       </c>
       <c r="F29">
-        <v>-0.03982015276316771</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.04196774338878882</v>
+      </c>
+      <c r="G29">
+        <v>-0.02636126707893776</v>
+      </c>
+      <c r="H29">
+        <v>0.04556015438394073</v>
+      </c>
+      <c r="I29">
+        <v>-0.04934695798492347</v>
+      </c>
+      <c r="J29">
+        <v>-0.007000832959252708</v>
+      </c>
+      <c r="K29">
+        <v>0.02845966416496407</v>
+      </c>
+      <c r="L29">
+        <v>-0.01577564605145086</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B30">
-        <v>0.1564350094012375</v>
+        <v>0.122712612996204</v>
       </c>
       <c r="C30">
-        <v>0.08437339363158143</v>
+        <v>-0.07999143894691244</v>
       </c>
       <c r="D30">
-        <v>0.06684713269817759</v>
+        <v>-0.0271086740878794</v>
       </c>
       <c r="E30">
-        <v>0.07933639732137418</v>
+        <v>0.0964290743848441</v>
       </c>
       <c r="F30">
-        <v>-0.08462069598272291</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1042140692151883</v>
+      </c>
+      <c r="G30">
+        <v>-0.1013996352097882</v>
+      </c>
+      <c r="H30">
+        <v>-0.02706957676713214</v>
+      </c>
+      <c r="I30">
+        <v>-0.1653553750751769</v>
+      </c>
+      <c r="J30">
+        <v>-0.04627211259211718</v>
+      </c>
+      <c r="K30">
+        <v>-0.01718679935467595</v>
+      </c>
+      <c r="L30">
+        <v>-0.4568910375670946</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B31">
-        <v>0.05340801997689135</v>
+        <v>0.04141932152756908</v>
       </c>
       <c r="C31">
-        <v>0.009514981250269972</v>
+        <v>-0.0394394782128361</v>
       </c>
       <c r="D31">
-        <v>0.02205594286604454</v>
+        <v>-0.008505490399894258</v>
       </c>
       <c r="E31">
-        <v>-0.001201301291845259</v>
+        <v>-0.002755278342199879</v>
       </c>
       <c r="F31">
-        <v>-0.006301381847003558</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.01633895748221233</v>
+      </c>
+      <c r="G31">
+        <v>-0.001238587063658816</v>
+      </c>
+      <c r="H31">
+        <v>0.05187183495376862</v>
+      </c>
+      <c r="I31">
+        <v>-0.05031805362844748</v>
+      </c>
+      <c r="J31">
+        <v>-0.01098402586411369</v>
+      </c>
+      <c r="K31">
+        <v>0.0075630625476408</v>
+      </c>
+      <c r="L31">
+        <v>-0.02205359353771563</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="B32">
-        <v>0.04915847916953562</v>
+        <v>0.05192655101356181</v>
       </c>
       <c r="C32">
-        <v>0.02292545956199982</v>
+        <v>-0.005082210884727272</v>
       </c>
       <c r="D32">
-        <v>-0.01357772296981778</v>
+        <v>-0.04704844663307214</v>
       </c>
       <c r="E32">
-        <v>-0.006642559902609453</v>
+        <v>0.03162993925218571</v>
       </c>
       <c r="F32">
-        <v>-0.07304595227112443</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.03611733779653339</v>
+      </c>
+      <c r="G32">
+        <v>-0.005826586929585958</v>
+      </c>
+      <c r="H32">
+        <v>0.007000070107572015</v>
+      </c>
+      <c r="I32">
+        <v>-0.0120695376712075</v>
+      </c>
+      <c r="J32">
+        <v>0.02561679676368323</v>
+      </c>
+      <c r="K32">
+        <v>0.09646175710321128</v>
+      </c>
+      <c r="L32">
+        <v>-0.08391738795977252</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B33">
-        <v>0.1026820295196532</v>
+        <v>0.1025666922576017</v>
       </c>
       <c r="C33">
-        <v>0.03828775539135781</v>
+        <v>-0.05863462787063877</v>
       </c>
       <c r="D33">
-        <v>0.04845825427578453</v>
+        <v>-0.00877650820162032</v>
       </c>
       <c r="E33">
-        <v>0.01259452103797033</v>
+        <v>-0.007439513710371428</v>
       </c>
       <c r="F33">
-        <v>-0.002370019515021472</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.05075407068356772</v>
+      </c>
+      <c r="G33">
+        <v>-0.03477742789772447</v>
+      </c>
+      <c r="H33">
+        <v>0.04322788555062895</v>
+      </c>
+      <c r="I33">
+        <v>-0.06862855163526724</v>
+      </c>
+      <c r="J33">
+        <v>-0.01234208328156185</v>
+      </c>
+      <c r="K33">
+        <v>0.02771711477048712</v>
+      </c>
+      <c r="L33">
+        <v>-0.01121368748817651</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="B34">
-        <v>0.0587491863794033</v>
+        <v>0.06336126897132532</v>
       </c>
       <c r="C34">
-        <v>0.05548694299466321</v>
+        <v>-0.05007234324827976</v>
       </c>
       <c r="D34">
-        <v>0.0255444231072075</v>
+        <v>0.01634474545788428</v>
       </c>
       <c r="E34">
-        <v>0.02025823341553199</v>
+        <v>0.01909513263243966</v>
       </c>
       <c r="F34">
-        <v>-0.03906411188005083</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.05112837106743598</v>
+      </c>
+      <c r="G34">
+        <v>-0.06210532914905766</v>
+      </c>
+      <c r="H34">
+        <v>0.02391780741570811</v>
+      </c>
+      <c r="I34">
+        <v>-0.08273665323087205</v>
+      </c>
+      <c r="J34">
+        <v>0.04961648063906018</v>
+      </c>
+      <c r="K34">
+        <v>-0.05067991065019495</v>
+      </c>
+      <c r="L34">
+        <v>0.03721556705096707</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B35">
-        <v>0.04212933704951628</v>
+        <v>0.03388633088222642</v>
       </c>
       <c r="C35">
-        <v>0.01451909400175269</v>
+        <v>-0.02155061972268836</v>
       </c>
       <c r="D35">
-        <v>0.01047563464402755</v>
+        <v>-0.001621020703549366</v>
       </c>
       <c r="E35">
-        <v>0.002654526483279764</v>
+        <v>-0.001880480805588956</v>
       </c>
       <c r="F35">
-        <v>-0.01464089497151962</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.01487883575093333</v>
+      </c>
+      <c r="G35">
+        <v>0.001623478131994995</v>
+      </c>
+      <c r="H35">
+        <v>0.02205835465427385</v>
+      </c>
+      <c r="I35">
+        <v>-0.07284318244452501</v>
+      </c>
+      <c r="J35">
+        <v>0.02318752304233086</v>
+      </c>
+      <c r="K35">
+        <v>-0.01265301707071579</v>
+      </c>
+      <c r="L35">
+        <v>-0.04044183575001058</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B36">
-        <v>0.03646404394358189</v>
+        <v>0.03280243039297709</v>
       </c>
       <c r="C36">
-        <v>0.01706223794526406</v>
+        <v>-0.01608257633016835</v>
       </c>
       <c r="D36">
-        <v>0.007654024584985393</v>
+        <v>-0.009306692877341009</v>
       </c>
       <c r="E36">
-        <v>0.03261033397271369</v>
+        <v>0.02734892311575984</v>
       </c>
       <c r="F36">
-        <v>-0.02566513561932539</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02296705071942629</v>
+      </c>
+      <c r="G36">
+        <v>-0.03652775098823107</v>
+      </c>
+      <c r="H36">
+        <v>0.01424737258818723</v>
+      </c>
+      <c r="I36">
+        <v>-0.06877881781127274</v>
+      </c>
+      <c r="J36">
+        <v>-0.004690385937264725</v>
+      </c>
+      <c r="K36">
+        <v>0.02256000053528389</v>
+      </c>
+      <c r="L36">
+        <v>-0.0215594308578483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +2103,180 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>0.06150185142921185</v>
+        <v>0.04690926429408838</v>
       </c>
       <c r="C38">
-        <v>0.02346126032098319</v>
+        <v>-0.04681629027928784</v>
       </c>
       <c r="D38">
-        <v>-0.00284461864829936</v>
+        <v>-0.01741211990270084</v>
       </c>
       <c r="E38">
-        <v>-0.01328547915847898</v>
+        <v>0.01720102547597361</v>
       </c>
       <c r="F38">
-        <v>-0.08175621868913648</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.003753600985323098</v>
+      </c>
+      <c r="G38">
+        <v>0.02374841583711453</v>
+      </c>
+      <c r="H38">
+        <v>0.0232241359318924</v>
+      </c>
+      <c r="I38">
+        <v>0.1314575980627539</v>
+      </c>
+      <c r="J38">
+        <v>0.01762784229252164</v>
+      </c>
+      <c r="K38">
+        <v>0.08867839006388475</v>
+      </c>
+      <c r="L38">
+        <v>-0.05200921564567004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>0.09379077757364142</v>
+        <v>0.09425739435936199</v>
       </c>
       <c r="C39">
-        <v>0.05711382321191805</v>
+        <v>-0.06203603104898377</v>
       </c>
       <c r="D39">
-        <v>0.06467675869843797</v>
+        <v>0.009598407831530317</v>
       </c>
       <c r="E39">
-        <v>0.007319496042385627</v>
+        <v>0.02612605926279755</v>
       </c>
       <c r="F39">
-        <v>-0.03424391991476222</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.07322423137528516</v>
+      </c>
+      <c r="G39">
+        <v>-0.05903201369684198</v>
+      </c>
+      <c r="H39">
+        <v>0.0103581811582293</v>
+      </c>
+      <c r="I39">
+        <v>-0.09870535475966921</v>
+      </c>
+      <c r="J39">
+        <v>0.1259328692274368</v>
+      </c>
+      <c r="K39">
+        <v>-0.08846245533214957</v>
+      </c>
+      <c r="L39">
+        <v>-0.09296210508620897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B40">
-        <v>0.0941847623848381</v>
+        <v>0.05137261502660683</v>
       </c>
       <c r="C40">
-        <v>0.05682052538265722</v>
+        <v>-0.07295791710480443</v>
       </c>
       <c r="D40">
-        <v>0.01476336664100715</v>
+        <v>-0.07435868194938765</v>
       </c>
       <c r="E40">
-        <v>0.02132908970157718</v>
+        <v>0.03494137369614064</v>
       </c>
       <c r="F40">
-        <v>-0.1919688914294717</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.05050624727374065</v>
+      </c>
+      <c r="G40">
+        <v>-0.1094982491841732</v>
+      </c>
+      <c r="H40">
+        <v>-0.05325781636441496</v>
+      </c>
+      <c r="I40">
+        <v>-0.03858564115986345</v>
+      </c>
+      <c r="J40">
+        <v>0.08443697718619908</v>
+      </c>
+      <c r="K40">
+        <v>-0.00747139123917848</v>
+      </c>
+      <c r="L40">
+        <v>-0.08958928423190918</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B41">
-        <v>0.06133594586367969</v>
+        <v>0.04456258972998242</v>
       </c>
       <c r="C41">
-        <v>0.04565074927194965</v>
+        <v>-0.03675612883496281</v>
       </c>
       <c r="D41">
-        <v>0.03029984781152646</v>
+        <v>0.01758931402936574</v>
       </c>
       <c r="E41">
-        <v>-0.001733652809129488</v>
+        <v>-0.01321894516672029</v>
       </c>
       <c r="F41">
-        <v>-0.009536311966724328</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.0008872182422614543</v>
+      </c>
+      <c r="G41">
+        <v>-0.02774484345082306</v>
+      </c>
+      <c r="H41">
+        <v>0.03640605294535141</v>
+      </c>
+      <c r="I41">
+        <v>-0.009501453335365352</v>
+      </c>
+      <c r="J41">
+        <v>0.03018240435194103</v>
+      </c>
+      <c r="K41">
+        <v>0.01702498162460721</v>
+      </c>
+      <c r="L41">
+        <v>-0.03507453008733234</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2293,104 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B43">
-        <v>0.05976696894170268</v>
+        <v>0.05630796765641507</v>
       </c>
       <c r="C43">
-        <v>0.02534276829850782</v>
+        <v>-0.04323154903792177</v>
       </c>
       <c r="D43">
-        <v>0.01790859653539778</v>
+        <v>0.005844227120422646</v>
       </c>
       <c r="E43">
-        <v>0.01970140972100029</v>
+        <v>0.01793372858163452</v>
       </c>
       <c r="F43">
-        <v>-0.007516855838346923</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.01285272123114772</v>
+      </c>
+      <c r="G43">
+        <v>-0.0126050677254735</v>
+      </c>
+      <c r="H43">
+        <v>0.0554621234565213</v>
+      </c>
+      <c r="I43">
+        <v>-0.01666754089492378</v>
+      </c>
+      <c r="J43">
+        <v>0.0184407159849286</v>
+      </c>
+      <c r="K43">
+        <v>0.001190477894790532</v>
+      </c>
+      <c r="L43">
+        <v>-0.002392372315628611</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="B44">
-        <v>0.07583263571314902</v>
+        <v>0.08467037020512595</v>
       </c>
       <c r="C44">
-        <v>0.03452873498509278</v>
+        <v>-0.05144942616879581</v>
       </c>
       <c r="D44">
-        <v>-0.02221486828456005</v>
+        <v>-0.01516004742169479</v>
       </c>
       <c r="E44">
-        <v>0.08649402350010592</v>
+        <v>0.1232298674541009</v>
       </c>
       <c r="F44">
-        <v>-0.1173925735718933</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.05709430989439226</v>
+      </c>
+      <c r="G44">
+        <v>-0.09227649023559288</v>
+      </c>
+      <c r="H44">
+        <v>0.0367969852133499</v>
+      </c>
+      <c r="I44">
+        <v>-0.1168255826415448</v>
+      </c>
+      <c r="J44">
+        <v>0.0558388485862093</v>
+      </c>
+      <c r="K44">
+        <v>-0.02731831698745124</v>
+      </c>
+      <c r="L44">
+        <v>-0.0003109162592506987</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2407,256 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B46">
-        <v>0.02512450592076919</v>
+        <v>0.04333060316532448</v>
       </c>
       <c r="C46">
-        <v>0.02939636591227103</v>
+        <v>-0.03539351704256102</v>
       </c>
       <c r="D46">
-        <v>0.005234048372830279</v>
+        <v>0.001225993738820204</v>
       </c>
       <c r="E46">
-        <v>0.01798284835441675</v>
+        <v>0.03283963317418057</v>
       </c>
       <c r="F46">
-        <v>-0.04643870982855752</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.03822627306124703</v>
+      </c>
+      <c r="G46">
+        <v>-0.01054877759192168</v>
+      </c>
+      <c r="H46">
+        <v>0.02126195651990024</v>
+      </c>
+      <c r="I46">
+        <v>-0.04687401825714292</v>
+      </c>
+      <c r="J46">
+        <v>-0.005446602074444364</v>
+      </c>
+      <c r="K46">
+        <v>0.07260912007792528</v>
+      </c>
+      <c r="L46">
+        <v>0.008634630936359623</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="B47">
-        <v>0.03865807258887771</v>
+        <v>0.04696566434715758</v>
       </c>
       <c r="C47">
-        <v>-0.008120670542933786</v>
+        <v>-0.01844467485231383</v>
       </c>
       <c r="D47">
-        <v>-0.008255873787401903</v>
+        <v>-0.02284545660972659</v>
       </c>
       <c r="E47">
-        <v>0.01409498631485241</v>
+        <v>0.01548863266852228</v>
       </c>
       <c r="F47">
-        <v>-0.07013453053648083</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.02760338086457559</v>
+      </c>
+      <c r="G47">
+        <v>-0.00519362506804686</v>
+      </c>
+      <c r="H47">
+        <v>0.03838481729259835</v>
+      </c>
+      <c r="I47">
+        <v>-0.03154036403614807</v>
+      </c>
+      <c r="J47">
+        <v>-0.03562444987064811</v>
+      </c>
+      <c r="K47">
+        <v>-0.00803693939944676</v>
+      </c>
+      <c r="L47">
+        <v>-0.005421015754399567</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B48">
-        <v>0.04366251426391517</v>
+        <v>0.04369200247161598</v>
       </c>
       <c r="C48">
-        <v>0.01999636288695486</v>
+        <v>-0.01570142916679562</v>
       </c>
       <c r="D48">
-        <v>0.006133958963544168</v>
+        <v>-0.02395623033360725</v>
       </c>
       <c r="E48">
-        <v>0.02291663425598398</v>
+        <v>0.02074671506590161</v>
       </c>
       <c r="F48">
-        <v>-0.05277564583862258</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02516314765476153</v>
+      </c>
+      <c r="G48">
+        <v>-0.0137786888003268</v>
+      </c>
+      <c r="H48">
+        <v>-0.007149970279616652</v>
+      </c>
+      <c r="I48">
+        <v>-0.06798207965787922</v>
+      </c>
+      <c r="J48">
+        <v>-0.006742385847512657</v>
+      </c>
+      <c r="K48">
+        <v>0.003477426510171688</v>
+      </c>
+      <c r="L48">
+        <v>-0.03935196700173801</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B49">
-        <v>0.151876471508281</v>
+        <v>0.2091658170498288</v>
       </c>
       <c r="C49">
-        <v>0.04060683254825074</v>
+        <v>-0.03817983875345262</v>
       </c>
       <c r="D49">
-        <v>0.1281511472778006</v>
+        <v>0.1743747480668277</v>
       </c>
       <c r="E49">
-        <v>0.0323487081566529</v>
+        <v>-0.05294594269721957</v>
       </c>
       <c r="F49">
-        <v>0.1047673547529451</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.01805391024335999</v>
+      </c>
+      <c r="G49">
+        <v>0.1949293536411985</v>
+      </c>
+      <c r="H49">
+        <v>-0.2007047604608152</v>
+      </c>
+      <c r="I49">
+        <v>0.06350922674042182</v>
+      </c>
+      <c r="J49">
+        <v>0.1471836062854772</v>
+      </c>
+      <c r="K49">
+        <v>-0.08790509703771342</v>
+      </c>
+      <c r="L49">
+        <v>0.1401975146347592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B50">
-        <v>0.06196619484611247</v>
+        <v>0.05056940591561972</v>
       </c>
       <c r="C50">
-        <v>0.01763150216921996</v>
+        <v>-0.03921409980208466</v>
       </c>
       <c r="D50">
-        <v>0.02667169931769857</v>
+        <v>-0.007886530687332178</v>
       </c>
       <c r="E50">
-        <v>0.000143347603491293</v>
+        <v>-0.005709434888514257</v>
       </c>
       <c r="F50">
-        <v>-0.0274830668906623</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.03791233577401834</v>
+      </c>
+      <c r="G50">
+        <v>-0.01768917118251111</v>
+      </c>
+      <c r="H50">
+        <v>0.05551483456742564</v>
+      </c>
+      <c r="I50">
+        <v>-0.03230193801547745</v>
+      </c>
+      <c r="J50">
+        <v>-0.03764056975420115</v>
+      </c>
+      <c r="K50">
+        <v>0.01759980235799218</v>
+      </c>
+      <c r="L50">
+        <v>-0.03670819878933169</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B51">
-        <v>0.04094691302512217</v>
+        <v>0.04022381442515607</v>
       </c>
       <c r="C51">
-        <v>0.008603847320241324</v>
+        <v>-0.008583902839656567</v>
       </c>
       <c r="D51">
-        <v>-0.006400591089941084</v>
+        <v>0.003771292728114703</v>
       </c>
       <c r="E51">
-        <v>0.001221523980397551</v>
+        <v>0.01589685977026347</v>
       </c>
       <c r="F51">
-        <v>-0.01097592767037327</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.03651933942372304</v>
+      </c>
+      <c r="G51">
+        <v>0.004191123587851646</v>
+      </c>
+      <c r="H51">
+        <v>-0.01106614114520181</v>
+      </c>
+      <c r="I51">
+        <v>0.007578487591778354</v>
+      </c>
+      <c r="J51">
+        <v>0.02518567889526494</v>
+      </c>
+      <c r="K51">
+        <v>-0.05858757499660783</v>
+      </c>
+      <c r="L51">
+        <v>0.0489664883675304</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2673,180 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="B53">
-        <v>0.1523168098338661</v>
+        <v>0.1519473440504739</v>
       </c>
       <c r="C53">
-        <v>-0.01854748948912026</v>
+        <v>-0.03269493687148008</v>
       </c>
       <c r="D53">
-        <v>0.07939576257051384</v>
+        <v>0.05973911793576133</v>
       </c>
       <c r="E53">
-        <v>0.00522633891321168</v>
+        <v>-0.03798147125363316</v>
       </c>
       <c r="F53">
-        <v>0.06794118445769801</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.01186727276614944</v>
+      </c>
+      <c r="G53">
+        <v>0.04104666536658504</v>
+      </c>
+      <c r="H53">
+        <v>0.2424565685786345</v>
+      </c>
+      <c r="I53">
+        <v>0.0877262063246758</v>
+      </c>
+      <c r="J53">
+        <v>-0.05118437879228599</v>
+      </c>
+      <c r="K53">
+        <v>-0.007490281613402522</v>
+      </c>
+      <c r="L53">
+        <v>0.05942596526453699</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="B54">
-        <v>0.05846302142556003</v>
+        <v>0.05958450133967155</v>
       </c>
       <c r="C54">
-        <v>0.02511591994278406</v>
+        <v>-0.02002270859348668</v>
       </c>
       <c r="D54">
-        <v>-0.02819597372776187</v>
+        <v>-0.02571500805679497</v>
       </c>
       <c r="E54">
-        <v>0.04354717650070682</v>
+        <v>0.0480499647209763</v>
       </c>
       <c r="F54">
-        <v>-0.04777676583144788</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.03516097047551182</v>
+      </c>
+      <c r="G54">
+        <v>-0.0846887553582939</v>
+      </c>
+      <c r="H54">
+        <v>0.01836529411582656</v>
+      </c>
+      <c r="I54">
+        <v>-0.1111453122771417</v>
+      </c>
+      <c r="J54">
+        <v>-0.02281868437948703</v>
+      </c>
+      <c r="K54">
+        <v>0.05176153882837053</v>
+      </c>
+      <c r="L54">
+        <v>-0.04275223227652326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B55">
-        <v>0.08803720593597669</v>
+        <v>0.09038030905562348</v>
       </c>
       <c r="C55">
-        <v>-0.01078634124721849</v>
+        <v>-0.02992206943200676</v>
       </c>
       <c r="D55">
-        <v>0.05524220873852233</v>
+        <v>0.04745128479863271</v>
       </c>
       <c r="E55">
-        <v>0.01891708158795805</v>
+        <v>-0.005036336549173015</v>
       </c>
       <c r="F55">
-        <v>-0.002763488283162347</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02778276886029247</v>
+      </c>
+      <c r="G55">
+        <v>-0.01832014302525122</v>
+      </c>
+      <c r="H55">
+        <v>0.1632755920945167</v>
+      </c>
+      <c r="I55">
+        <v>0.007607007023718092</v>
+      </c>
+      <c r="J55">
+        <v>-0.01813149484920172</v>
+      </c>
+      <c r="K55">
+        <v>-0.005286377244766155</v>
+      </c>
+      <c r="L55">
+        <v>0.07492556096759931</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B56">
-        <v>0.1513052495087976</v>
+        <v>0.1466485975200109</v>
       </c>
       <c r="C56">
-        <v>-0.02835383504868857</v>
+        <v>-0.04842519066708764</v>
       </c>
       <c r="D56">
-        <v>0.09836401991349762</v>
+        <v>0.06186839688314453</v>
       </c>
       <c r="E56">
-        <v>0.04401741993117739</v>
+        <v>-0.01299046629278664</v>
       </c>
       <c r="F56">
-        <v>0.06619146125229942</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.02586818723633008</v>
+      </c>
+      <c r="G56">
+        <v>0.0203296095361057</v>
+      </c>
+      <c r="H56">
+        <v>0.2488646907063277</v>
+      </c>
+      <c r="I56">
+        <v>0.110592333499191</v>
+      </c>
+      <c r="J56">
+        <v>-0.03796600250513307</v>
+      </c>
+      <c r="K56">
+        <v>-0.004003221541804854</v>
+      </c>
+      <c r="L56">
+        <v>0.01321883097679427</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,770 +2863,1472 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="B58">
-        <v>0.1111534842188257</v>
+        <v>0.06911041203082539</v>
       </c>
       <c r="C58">
-        <v>0.07329804644101164</v>
+        <v>-0.04975964480419796</v>
       </c>
       <c r="D58">
-        <v>-0.2830705330603331</v>
+        <v>-0.1533438149307227</v>
       </c>
       <c r="E58">
-        <v>0.1172817287783789</v>
+        <v>0.1106167903411603</v>
       </c>
       <c r="F58">
-        <v>-0.198426103959403</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2425729393503333</v>
+      </c>
+      <c r="G58">
+        <v>-0.01463162438330216</v>
+      </c>
+      <c r="H58">
+        <v>-0.1289113848289378</v>
+      </c>
+      <c r="I58">
+        <v>-0.4201243908159758</v>
+      </c>
+      <c r="J58">
+        <v>-0.1508268626900625</v>
+      </c>
+      <c r="K58">
+        <v>-0.4061786114584535</v>
+      </c>
+      <c r="L58">
+        <v>-0.07829115823945197</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B59">
-        <v>0.1853633590398562</v>
+        <v>0.2046487264325041</v>
       </c>
       <c r="C59">
-        <v>-0.4211867552307978</v>
+        <v>0.3234237864409541</v>
       </c>
       <c r="D59">
-        <v>-0.0659582606654829</v>
+        <v>-0.009863662451239014</v>
       </c>
       <c r="E59">
-        <v>0.08774792193141269</v>
+        <v>0.01826374095898465</v>
       </c>
       <c r="F59">
-        <v>-0.03637354648100156</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.04925455174386679</v>
+      </c>
+      <c r="G59">
+        <v>-0.04588335675777062</v>
+      </c>
+      <c r="H59">
+        <v>0.0654873775078957</v>
+      </c>
+      <c r="I59">
+        <v>0.0576744166934982</v>
+      </c>
+      <c r="J59">
+        <v>0.04706376942896204</v>
+      </c>
+      <c r="K59">
+        <v>-0.003568986034072557</v>
+      </c>
+      <c r="L59">
+        <v>0.01943682040579823</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B60">
-        <v>0.2327910541404534</v>
+        <v>0.2451678066754287</v>
       </c>
       <c r="C60">
-        <v>0.01187066918244481</v>
+        <v>-0.07824254049395656</v>
       </c>
       <c r="D60">
-        <v>0.1093912980008114</v>
+        <v>0.1327005752564756</v>
       </c>
       <c r="E60">
-        <v>0.0699006338019174</v>
+        <v>-0.01807358924477785</v>
       </c>
       <c r="F60">
-        <v>0.0181420110030775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.00100980278601366</v>
+      </c>
+      <c r="G60">
+        <v>0.05239932383474223</v>
+      </c>
+      <c r="H60">
+        <v>-0.07537785467328122</v>
+      </c>
+      <c r="I60">
+        <v>0.1410404809851994</v>
+      </c>
+      <c r="J60">
+        <v>-0.1269907975319874</v>
+      </c>
+      <c r="K60">
+        <v>-0.05291348503140788</v>
+      </c>
+      <c r="L60">
+        <v>0.08945817423039454</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="B61">
-        <v>0.07615140050091336</v>
+        <v>0.0842397872873034</v>
       </c>
       <c r="C61">
-        <v>0.03597922996386515</v>
+        <v>-0.04610892195904983</v>
       </c>
       <c r="D61">
-        <v>0.04709543140564852</v>
+        <v>0.02179222219499398</v>
       </c>
       <c r="E61">
-        <v>0.008284607894230016</v>
+        <v>0.02475388354999694</v>
       </c>
       <c r="F61">
-        <v>-0.009235371225448622</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.05441148364818471</v>
+      </c>
+      <c r="G61">
+        <v>-0.06645463252253625</v>
+      </c>
+      <c r="H61">
+        <v>0.05344173989736371</v>
+      </c>
+      <c r="I61">
+        <v>-0.05833958544538146</v>
+      </c>
+      <c r="J61">
+        <v>0.08111703593773219</v>
+      </c>
+      <c r="K61">
+        <v>-0.03211536204585314</v>
+      </c>
+      <c r="L61">
+        <v>-0.03163448504114326</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B62">
-        <v>0.1552837127176205</v>
+        <v>0.1474692563275914</v>
       </c>
       <c r="C62">
-        <v>-0.002600665230310356</v>
+        <v>-0.05327481231728663</v>
       </c>
       <c r="D62">
-        <v>0.06311925389669255</v>
+        <v>0.05346512293523</v>
       </c>
       <c r="E62">
-        <v>-0.01357391477879369</v>
+        <v>-0.06052775733031612</v>
       </c>
       <c r="F62">
-        <v>0.1181188321115416</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>-0.002166096196175364</v>
+      </c>
+      <c r="G62">
+        <v>-0.004370037742297485</v>
+      </c>
+      <c r="H62">
+        <v>0.218573214328105</v>
+      </c>
+      <c r="I62">
+        <v>0.07961588928865652</v>
+      </c>
+      <c r="J62">
+        <v>-0.06190986115417659</v>
+      </c>
+      <c r="K62">
+        <v>0.03611141167815448</v>
+      </c>
+      <c r="L62">
+        <v>0.06657905962772306</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B63">
-        <v>0.05559021016749104</v>
+        <v>0.04851427369106476</v>
       </c>
       <c r="C63">
-        <v>0.03913904567217463</v>
+        <v>-0.02777439613534606</v>
       </c>
       <c r="D63">
-        <v>0.0212354112451923</v>
+        <v>-0.005431607237103983</v>
       </c>
       <c r="E63">
-        <v>0.01210881781456133</v>
+        <v>-0.0005860594877796678</v>
       </c>
       <c r="F63">
-        <v>-0.01015868760352556</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.03659003026040935</v>
+      </c>
+      <c r="G63">
+        <v>-0.04447682368498597</v>
+      </c>
+      <c r="H63">
+        <v>0.01352384959854375</v>
+      </c>
+      <c r="I63">
+        <v>-0.06108176683306666</v>
+      </c>
+      <c r="J63">
+        <v>-0.02738933467558879</v>
+      </c>
+      <c r="K63">
+        <v>0.01210795590369248</v>
+      </c>
+      <c r="L63">
+        <v>-0.03038159273804597</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B64">
-        <v>0.1003222383224249</v>
+        <v>0.1029428724153704</v>
       </c>
       <c r="C64">
-        <v>-0.000531948814847523</v>
+        <v>-0.0284294479470665</v>
       </c>
       <c r="D64">
-        <v>0.04025386891674212</v>
+        <v>0.02519689868911702</v>
       </c>
       <c r="E64">
-        <v>0.03642411562134134</v>
+        <v>0.0412862301516856</v>
       </c>
       <c r="F64">
-        <v>-0.05290927768814564</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.07525881925376307</v>
+      </c>
+      <c r="G64">
+        <v>-0.03777846619181506</v>
+      </c>
+      <c r="H64">
+        <v>-0.01526787468366963</v>
+      </c>
+      <c r="I64">
+        <v>-0.02720498441016791</v>
+      </c>
+      <c r="J64">
+        <v>0.02712804732419618</v>
+      </c>
+      <c r="K64">
+        <v>-0.0215223752886205</v>
+      </c>
+      <c r="L64">
+        <v>-0.06307949713038651</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B65">
-        <v>0.1082955742630376</v>
+        <v>0.1260513391932514</v>
       </c>
       <c r="C65">
-        <v>0.02515637664636095</v>
+        <v>-0.02483477245848578</v>
       </c>
       <c r="D65">
-        <v>0.01495510568685677</v>
+        <v>0.0375689434363926</v>
       </c>
       <c r="E65">
-        <v>0.0406587220001664</v>
+        <v>-0.01204402050700056</v>
       </c>
       <c r="F65">
-        <v>-0.09810005450948238</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.07435906361894327</v>
+      </c>
+      <c r="G65">
+        <v>-0.06093842183673842</v>
+      </c>
+      <c r="H65">
+        <v>-0.1754143689169652</v>
+      </c>
+      <c r="I65">
+        <v>-0.08883856242083127</v>
+      </c>
+      <c r="J65">
+        <v>-0.6767858708174367</v>
+      </c>
+      <c r="K65">
+        <v>0.1054765669553808</v>
+      </c>
+      <c r="L65">
+        <v>0.1040312052318239</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="B66">
-        <v>0.1547381387839247</v>
+        <v>0.132825898455126</v>
       </c>
       <c r="C66">
-        <v>0.1042776978823128</v>
+        <v>-0.1139746384362615</v>
       </c>
       <c r="D66">
-        <v>0.106951335436548</v>
+        <v>0.02079473301339517</v>
       </c>
       <c r="E66">
-        <v>0.02316094038819411</v>
+        <v>0.01073309331425751</v>
       </c>
       <c r="F66">
-        <v>0.0194969013123335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.08299335336527899</v>
+      </c>
+      <c r="G66">
+        <v>-0.08656755572234869</v>
+      </c>
+      <c r="H66">
+        <v>0.02238758146109231</v>
+      </c>
+      <c r="I66">
+        <v>-0.09946361650629608</v>
+      </c>
+      <c r="J66">
+        <v>0.2133407256293361</v>
+      </c>
+      <c r="K66">
+        <v>-0.05629665529746212</v>
+      </c>
+      <c r="L66">
+        <v>-0.1136255880438846</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="B67">
-        <v>0.09360957515985149</v>
+        <v>0.09393416265959732</v>
       </c>
       <c r="C67">
-        <v>0.0371436698564293</v>
+        <v>-0.0612122968057735</v>
       </c>
       <c r="D67">
-        <v>0.007536182012234471</v>
+        <v>0.007251071811797332</v>
       </c>
       <c r="E67">
-        <v>0.01164439901118921</v>
+        <v>0.03609768029635575</v>
       </c>
       <c r="F67">
-        <v>-0.03036155872147023</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.004845424496878065</v>
+      </c>
+      <c r="G67">
+        <v>-4.000221640903385e-05</v>
+      </c>
+      <c r="H67">
+        <v>0.01608559220163962</v>
+      </c>
+      <c r="I67">
+        <v>0.1483134307463522</v>
+      </c>
+      <c r="J67">
+        <v>0.05258787879795137</v>
+      </c>
+      <c r="K67">
+        <v>0.07359055882986376</v>
+      </c>
+      <c r="L67">
+        <v>-3.422854795815729e-06</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B68">
-        <v>0.0687243584934713</v>
+        <v>0.1027878509755163</v>
       </c>
       <c r="C68">
-        <v>-0.2607705096997279</v>
+        <v>0.275216608291119</v>
       </c>
       <c r="D68">
-        <v>-0.05742587550848172</v>
+        <v>-0.04013956656405226</v>
       </c>
       <c r="E68">
-        <v>0.03610555658705061</v>
+        <v>0.03107402552546639</v>
       </c>
       <c r="F68">
-        <v>-0.03746385100282827</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.0001692864894957104</v>
+      </c>
+      <c r="G68">
+        <v>0.009836414251306104</v>
+      </c>
+      <c r="H68">
+        <v>0.02444055987952085</v>
+      </c>
+      <c r="I68">
+        <v>-0.02091852903518005</v>
+      </c>
+      <c r="J68">
+        <v>-0.06575486051727647</v>
+      </c>
+      <c r="K68">
+        <v>0.009325069357214586</v>
+      </c>
+      <c r="L68">
+        <v>-0.03458282659332332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B69">
-        <v>0.06551884476400496</v>
+        <v>0.05414612741112827</v>
       </c>
       <c r="C69">
-        <v>0.02140546734776157</v>
+        <v>-0.02635260467699557</v>
       </c>
       <c r="D69">
-        <v>0.005188473069492719</v>
+        <v>-0.01438813068291919</v>
       </c>
       <c r="E69">
-        <v>0.01358333792241699</v>
+        <v>-0.003641814247609695</v>
       </c>
       <c r="F69">
-        <v>-0.01250395023771628</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.0008708260101026297</v>
+      </c>
+      <c r="G69">
+        <v>-0.02742987279204199</v>
+      </c>
+      <c r="H69">
+        <v>0.04703103437473211</v>
+      </c>
+      <c r="I69">
+        <v>2.989665343691785e-05</v>
+      </c>
+      <c r="J69">
+        <v>-0.001517806652140466</v>
+      </c>
+      <c r="K69">
+        <v>-0.01843971627978843</v>
+      </c>
+      <c r="L69">
+        <v>-0.00900018073857544</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B70">
-        <v>0.01942944863182983</v>
+        <v>0.04291137256928792</v>
       </c>
       <c r="C70">
-        <v>-0.005012789667845513</v>
+        <v>-0.02121418204153693</v>
       </c>
       <c r="D70">
-        <v>-0.003577174417132949</v>
+        <v>0.0307558808182641</v>
       </c>
       <c r="E70">
-        <v>-0.0116929257966906</v>
+        <v>-0.01958846121388503</v>
       </c>
       <c r="F70">
-        <v>-0.003635397038847495</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.03987317229868967</v>
+      </c>
+      <c r="G70">
+        <v>-0.03076961268593082</v>
+      </c>
+      <c r="H70">
+        <v>-0.01372158013352569</v>
+      </c>
+      <c r="I70">
+        <v>0.034377324833817</v>
+      </c>
+      <c r="J70">
+        <v>0.05218765248471192</v>
+      </c>
+      <c r="K70">
+        <v>0.1200418879363782</v>
+      </c>
+      <c r="L70">
+        <v>-0.06589899949517207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="B71">
-        <v>0.07216958179189784</v>
+        <v>0.1152492637375432</v>
       </c>
       <c r="C71">
-        <v>-0.2752549332201863</v>
+        <v>0.2877901064507108</v>
       </c>
       <c r="D71">
-        <v>-0.05322206727041287</v>
+        <v>-0.0206376981702906</v>
       </c>
       <c r="E71">
-        <v>0.06890697704906226</v>
+        <v>0.04777862596036437</v>
       </c>
       <c r="F71">
-        <v>-0.02011943658842538</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.005289787404675848</v>
+      </c>
+      <c r="G71">
+        <v>0.0008309252663446705</v>
+      </c>
+      <c r="H71">
+        <v>0.009603664372311013</v>
+      </c>
+      <c r="I71">
+        <v>-0.02111722738154059</v>
+      </c>
+      <c r="J71">
+        <v>-0.00875031832140751</v>
+      </c>
+      <c r="K71">
+        <v>0.008289930002300263</v>
+      </c>
+      <c r="L71">
+        <v>0.004659739511798647</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B72">
-        <v>0.1423528669939629</v>
+        <v>0.1332795223745531</v>
       </c>
       <c r="C72">
-        <v>-0.03783001527486544</v>
+        <v>-0.01203384552415675</v>
       </c>
       <c r="D72">
-        <v>0.05407977302474503</v>
+        <v>-0.05030219318738847</v>
       </c>
       <c r="E72">
-        <v>-0.244704203750847</v>
+        <v>-0.1721439491427086</v>
       </c>
       <c r="F72">
-        <v>-0.01784024522584067</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.06869667672926814</v>
+      </c>
+      <c r="G72">
+        <v>-0.0959604962757712</v>
+      </c>
+      <c r="H72">
+        <v>0.02083161043830003</v>
+      </c>
+      <c r="I72">
+        <v>0.05507467059648043</v>
+      </c>
+      <c r="J72">
+        <v>-0.1218552762637597</v>
+      </c>
+      <c r="K72">
+        <v>-0.02391763784834562</v>
+      </c>
+      <c r="L72">
+        <v>0.1384835043678579</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="B73">
-        <v>0.2515531614513731</v>
+        <v>0.2382775019721707</v>
       </c>
       <c r="C73">
-        <v>0.08618183190575419</v>
+        <v>-0.1251487308656475</v>
       </c>
       <c r="D73">
-        <v>0.186496494306192</v>
+        <v>0.2621662185762315</v>
       </c>
       <c r="E73">
-        <v>0.114963520629691</v>
+        <v>-0.03513878967988043</v>
       </c>
       <c r="F73">
-        <v>0.08817977916056761</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.1192910329815539</v>
+      </c>
+      <c r="G73">
+        <v>0.2777982101982692</v>
+      </c>
+      <c r="H73">
+        <v>-0.2977747168904948</v>
+      </c>
+      <c r="I73">
+        <v>0.1144370665777367</v>
+      </c>
+      <c r="J73">
+        <v>0.06341141133612255</v>
+      </c>
+      <c r="K73">
+        <v>-0.4876720889425552</v>
+      </c>
+      <c r="L73">
+        <v>0.1692817530413075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="B74">
-        <v>0.08653550524593845</v>
+        <v>0.0894567895570457</v>
       </c>
       <c r="C74">
-        <v>-0.008213302919115201</v>
+        <v>-0.04780768700348539</v>
       </c>
       <c r="D74">
-        <v>0.06260784533634718</v>
+        <v>0.03386527519640142</v>
       </c>
       <c r="E74">
-        <v>0.008453278752175712</v>
+        <v>-0.01996593918517805</v>
       </c>
       <c r="F74">
-        <v>-0.005697261203970745</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.03365213763029423</v>
+      </c>
+      <c r="G74">
+        <v>0.03727775613145366</v>
+      </c>
+      <c r="H74">
+        <v>0.1450238021409161</v>
+      </c>
+      <c r="I74">
+        <v>0.01217172312043469</v>
+      </c>
+      <c r="J74">
+        <v>-0.0138676577802106</v>
+      </c>
+      <c r="K74">
+        <v>-0.06413124590232475</v>
+      </c>
+      <c r="L74">
+        <v>0.0264477316875883</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B75">
-        <v>0.1154419444561174</v>
+        <v>0.09752107797623404</v>
       </c>
       <c r="C75">
-        <v>-0.000290367330017096</v>
+        <v>-0.04007331461744944</v>
       </c>
       <c r="D75">
-        <v>-0.0103614088242825</v>
+        <v>-0.005703498751487465</v>
       </c>
       <c r="E75">
-        <v>0.02198970366047604</v>
+        <v>-0.01205096266674875</v>
       </c>
       <c r="F75">
-        <v>0.04235078648155934</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.05423162776918905</v>
+      </c>
+      <c r="G75">
+        <v>0.003145909673036583</v>
+      </c>
+      <c r="H75">
+        <v>0.132940436399783</v>
+      </c>
+      <c r="I75">
+        <v>0.03752815815749476</v>
+      </c>
+      <c r="J75">
+        <v>-0.03154117408366602</v>
+      </c>
+      <c r="K75">
+        <v>-0.003549318479245448</v>
+      </c>
+      <c r="L75">
+        <v>0.01702306828035461</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B76">
-        <v>0.1314263966568592</v>
+        <v>0.1131319151036207</v>
       </c>
       <c r="C76">
-        <v>-0.004524978369393246</v>
+        <v>-0.05838608618470385</v>
       </c>
       <c r="D76">
-        <v>0.06323237611807221</v>
+        <v>0.05086515781365232</v>
       </c>
       <c r="E76">
-        <v>0.01426590035160762</v>
+        <v>-0.01153074746124255</v>
       </c>
       <c r="F76">
-        <v>0.02225971044828808</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.01285934942023598</v>
+      </c>
+      <c r="G76">
+        <v>0.03264591979678777</v>
+      </c>
+      <c r="H76">
+        <v>0.2308150750002255</v>
+      </c>
+      <c r="I76">
+        <v>0.06310642452095487</v>
+      </c>
+      <c r="J76">
+        <v>-0.03833766554452363</v>
+      </c>
+      <c r="K76">
+        <v>-0.01963280599560548</v>
+      </c>
+      <c r="L76">
+        <v>0.02430033404507724</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B77">
-        <v>0.1083787444372197</v>
+        <v>0.07949925226649404</v>
       </c>
       <c r="C77">
-        <v>0.03901376519939691</v>
+        <v>-0.02404334280423052</v>
       </c>
       <c r="D77">
-        <v>-0.07422518636956495</v>
+        <v>-0.07856668923990147</v>
       </c>
       <c r="E77">
-        <v>0.005496470555101314</v>
+        <v>0.1091424307753843</v>
       </c>
       <c r="F77">
-        <v>-0.2560427663373746</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.03481229374634533</v>
+      </c>
+      <c r="G77">
+        <v>-0.6573624842720531</v>
+      </c>
+      <c r="H77">
+        <v>-0.2702349247553071</v>
+      </c>
+      <c r="I77">
+        <v>0.5186278958640407</v>
+      </c>
+      <c r="J77">
+        <v>0.07180988983676198</v>
+      </c>
+      <c r="K77">
+        <v>-0.1030706532893249</v>
+      </c>
+      <c r="L77">
+        <v>0.01496110199618335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B78">
-        <v>0.1256444670266084</v>
+        <v>0.1605416681313148</v>
       </c>
       <c r="C78">
-        <v>0.08059155051002494</v>
+        <v>-0.08937277070925344</v>
       </c>
       <c r="D78">
-        <v>0.04570721461363504</v>
+        <v>-0.04423352923283837</v>
       </c>
       <c r="E78">
-        <v>0.02487251087868996</v>
+        <v>0.1377392770445207</v>
       </c>
       <c r="F78">
-        <v>-0.09926974837595899</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.1386948387600456</v>
+      </c>
+      <c r="G78">
+        <v>0.004460844358138437</v>
+      </c>
+      <c r="H78">
+        <v>-0.1114016459906501</v>
+      </c>
+      <c r="I78">
+        <v>-0.1633752135148168</v>
+      </c>
+      <c r="J78">
+        <v>0.1368501486780318</v>
+      </c>
+      <c r="K78">
+        <v>0.226658456253466</v>
+      </c>
+      <c r="L78">
+        <v>0.4352863463635702</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B79">
-        <v>0.1357067311350755</v>
+        <v>0.134974303251619</v>
       </c>
       <c r="C79">
-        <v>0.01353678281634978</v>
+        <v>-0.05336874250560624</v>
       </c>
       <c r="D79">
-        <v>0.07708634182950962</v>
+        <v>0.04101653425678099</v>
       </c>
       <c r="E79">
-        <v>0.002149804985614693</v>
+        <v>-0.01639486592806588</v>
       </c>
       <c r="F79">
-        <v>0.06474525828841966</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.03351933403037403</v>
+      </c>
+      <c r="G79">
+        <v>-0.007489301885028597</v>
+      </c>
+      <c r="H79">
+        <v>0.1892884362566316</v>
+      </c>
+      <c r="I79">
+        <v>0.08069973762637724</v>
+      </c>
+      <c r="J79">
+        <v>-0.05320791606131246</v>
+      </c>
+      <c r="K79">
+        <v>0.01258366798741202</v>
+      </c>
+      <c r="L79">
+        <v>0.03949611156427523</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B80">
-        <v>0.04411136248051459</v>
+        <v>0.04684286129997618</v>
       </c>
       <c r="C80">
-        <v>0.03496306012106758</v>
+        <v>-0.02161071858054648</v>
       </c>
       <c r="D80">
-        <v>0.01545827067729912</v>
+        <v>0.05611407270110457</v>
       </c>
       <c r="E80">
-        <v>0.008573480605299676</v>
+        <v>-0.02240291223370036</v>
       </c>
       <c r="F80">
-        <v>-0.01837807166415792</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.0008059063633422442</v>
+      </c>
+      <c r="G80">
+        <v>-0.02503364159832336</v>
+      </c>
+      <c r="H80">
+        <v>-0.01827210335155523</v>
+      </c>
+      <c r="I80">
+        <v>-0.09487394286845753</v>
+      </c>
+      <c r="J80">
+        <v>0.02359377674543072</v>
+      </c>
+      <c r="K80">
+        <v>0.01927364803335083</v>
+      </c>
+      <c r="L80">
+        <v>-0.005159375708065417</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B81">
-        <v>0.1359527933108843</v>
+        <v>0.1307408416735757</v>
       </c>
       <c r="C81">
-        <v>0.02134140081200558</v>
+        <v>-0.04519385643787308</v>
       </c>
       <c r="D81">
-        <v>0.07875457619241689</v>
+        <v>0.02932814570459181</v>
       </c>
       <c r="E81">
-        <v>0.02782537881665739</v>
+        <v>-0.006983728437850651</v>
       </c>
       <c r="F81">
-        <v>0.02500169320184387</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.04074064483103877</v>
+      </c>
+      <c r="G81">
+        <v>-0.0005098690130550855</v>
+      </c>
+      <c r="H81">
+        <v>0.1702320919480898</v>
+      </c>
+      <c r="I81">
+        <v>0.03083255021593357</v>
+      </c>
+      <c r="J81">
+        <v>0.01176369006577813</v>
+      </c>
+      <c r="K81">
+        <v>-0.03034753409551762</v>
+      </c>
+      <c r="L81">
+        <v>-0.06198277540818622</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B82">
-        <v>0.1147373131572691</v>
+        <v>0.117490606606411</v>
       </c>
       <c r="C82">
-        <v>0.0237481515318729</v>
+        <v>-0.04457483716285546</v>
       </c>
       <c r="D82">
-        <v>0.03367806840305979</v>
+        <v>0.03695385477951318</v>
       </c>
       <c r="E82">
-        <v>0.03431121090916881</v>
+        <v>-0.02576843568667954</v>
       </c>
       <c r="F82">
-        <v>0.1092715018289937</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.02082472366080115</v>
+      </c>
+      <c r="G82">
+        <v>0.02121344155757316</v>
+      </c>
+      <c r="H82">
+        <v>0.2650097453089204</v>
+      </c>
+      <c r="I82">
+        <v>0.05152212792803728</v>
+      </c>
+      <c r="J82">
+        <v>0.04619916574426091</v>
+      </c>
+      <c r="K82">
+        <v>-0.001877344470858504</v>
+      </c>
+      <c r="L82">
+        <v>0.001667525477919647</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="B83">
-        <v>0.05588007831740898</v>
+        <v>0.0763712167955264</v>
       </c>
       <c r="C83">
-        <v>0.02761451860917979</v>
+        <v>-0.0449923538094751</v>
       </c>
       <c r="D83">
-        <v>-0.08757476079637705</v>
+        <v>0.002557149864687888</v>
       </c>
       <c r="E83">
-        <v>0.01746959543442132</v>
+        <v>0.01115249377367045</v>
       </c>
       <c r="F83">
-        <v>0.07543333702370288</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.1058891794593888</v>
+      </c>
+      <c r="G83">
+        <v>-0.02434445189578226</v>
+      </c>
+      <c r="H83">
+        <v>-0.03339963074837813</v>
+      </c>
+      <c r="I83">
+        <v>-0.06278964453069354</v>
+      </c>
+      <c r="J83">
+        <v>0.03732484759480225</v>
+      </c>
+      <c r="K83">
+        <v>0.05991308493590505</v>
+      </c>
+      <c r="L83">
+        <v>0.008349586404823526</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B84">
-        <v>0.05534250230788839</v>
+        <v>0.04127749539406586</v>
       </c>
       <c r="C84">
-        <v>0.01768763014487205</v>
+        <v>0.01842548863458587</v>
       </c>
       <c r="D84">
-        <v>0.01750796879582627</v>
+        <v>-0.03975342496128922</v>
       </c>
       <c r="E84">
-        <v>-0.01609960735640912</v>
+        <v>-0.005996374039996286</v>
       </c>
       <c r="F84">
-        <v>-0.003871186017171234</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>-0.01692341684735463</v>
+      </c>
+      <c r="G84">
+        <v>0.08727271946415414</v>
+      </c>
+      <c r="H84">
+        <v>-0.1515389458623759</v>
+      </c>
+      <c r="I84">
+        <v>-0.177544807518888</v>
+      </c>
+      <c r="J84">
+        <v>0.1747240966103135</v>
+      </c>
+      <c r="K84">
+        <v>0.2670502308838933</v>
+      </c>
+      <c r="L84">
+        <v>0.2277412886519922</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B85">
-        <v>0.09863775331555008</v>
+        <v>0.1130797643771176</v>
       </c>
       <c r="C85">
-        <v>0.03210644553312838</v>
+        <v>-0.04282928222352447</v>
       </c>
       <c r="D85">
-        <v>0.02366217260790794</v>
+        <v>0.04279224297234718</v>
       </c>
       <c r="E85">
-        <v>0.05331686655877148</v>
+        <v>0.02607146662797032</v>
       </c>
       <c r="F85">
-        <v>0.02305637361716472</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.0002816119701312864</v>
+      </c>
+      <c r="G85">
+        <v>-0.00454573848089801</v>
+      </c>
+      <c r="H85">
+        <v>0.1910922717093833</v>
+      </c>
+      <c r="I85">
+        <v>0.04966039739341005</v>
+      </c>
+      <c r="J85">
+        <v>-0.041255837192994</v>
+      </c>
+      <c r="K85">
+        <v>0.01271091756574722</v>
+      </c>
+      <c r="L85">
+        <v>0.03941037919804857</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B86">
-        <v>0.06422750810457208</v>
+        <v>0.07208006659634797</v>
       </c>
       <c r="C86">
-        <v>0.07558492261743371</v>
+        <v>-0.02402016830488585</v>
       </c>
       <c r="D86">
-        <v>0.001804753402496971</v>
+        <v>-0.02143387729950098</v>
       </c>
       <c r="E86">
-        <v>0.009391814714058653</v>
+        <v>0.04607189410976445</v>
       </c>
       <c r="F86">
-        <v>-0.0269166029986747</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.01554587902770391</v>
+      </c>
+      <c r="G86">
+        <v>0.01193688451841026</v>
+      </c>
+      <c r="H86">
+        <v>-0.08940031560908783</v>
+      </c>
+      <c r="I86">
+        <v>-0.07469258838035595</v>
+      </c>
+      <c r="J86">
+        <v>0.1885464525066184</v>
+      </c>
+      <c r="K86">
+        <v>0.3252067346473039</v>
+      </c>
+      <c r="L86">
+        <v>0.2702065592447099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B87">
-        <v>0.1053017469274641</v>
+        <v>0.1154514217495757</v>
       </c>
       <c r="C87">
-        <v>0.056343634230848</v>
+        <v>-0.0633426805035595</v>
       </c>
       <c r="D87">
-        <v>0.04646869925931307</v>
+        <v>-0.01549882467341965</v>
       </c>
       <c r="E87">
-        <v>0.01869684428255703</v>
+        <v>0.04443287864783061</v>
       </c>
       <c r="F87">
-        <v>-0.1692506929720578</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1258557397561654</v>
+      </c>
+      <c r="G87">
+        <v>-0.1599506162448049</v>
+      </c>
+      <c r="H87">
+        <v>-0.1348198287231439</v>
+      </c>
+      <c r="I87">
+        <v>0.08085137255741698</v>
+      </c>
+      <c r="J87">
+        <v>0.0434292868122064</v>
+      </c>
+      <c r="K87">
+        <v>0.005771472219310764</v>
+      </c>
+      <c r="L87">
+        <v>-0.04416317838152928</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B88">
-        <v>0.05825015307833743</v>
+        <v>0.06334486064982296</v>
       </c>
       <c r="C88">
-        <v>0.02971005568629571</v>
+        <v>-0.04770652246915244</v>
       </c>
       <c r="D88">
-        <v>0.02915956305357671</v>
+        <v>0.03633347321392686</v>
       </c>
       <c r="E88">
-        <v>0.01632092435398852</v>
+        <v>-0.0002522746103092986</v>
       </c>
       <c r="F88">
-        <v>-0.01223900419514401</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.02413801699874528</v>
+      </c>
+      <c r="G88">
+        <v>-0.01976462424416247</v>
+      </c>
+      <c r="H88">
+        <v>0.02033248336927444</v>
+      </c>
+      <c r="I88">
+        <v>-0.05078404799728918</v>
+      </c>
+      <c r="J88">
+        <v>0.02895647022911987</v>
+      </c>
+      <c r="K88">
+        <v>-0.01173187011344968</v>
+      </c>
+      <c r="L88">
+        <v>-0.03564338033333372</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B89">
-        <v>0.1213557386408224</v>
+        <v>0.1909603292204207</v>
       </c>
       <c r="C89">
-        <v>-0.3092589359914031</v>
+        <v>0.3639441326091316</v>
       </c>
       <c r="D89">
-        <v>-0.07802033102909314</v>
+        <v>0.001349928123220915</v>
       </c>
       <c r="E89">
-        <v>0.1141079472163004</v>
+        <v>0.09667787854896373</v>
       </c>
       <c r="F89">
-        <v>-0.05514190450518072</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02860439157203709</v>
+      </c>
+      <c r="G89">
+        <v>-0.001398064770749823</v>
+      </c>
+      <c r="H89">
+        <v>0.005162358999504419</v>
+      </c>
+      <c r="I89">
+        <v>-0.05186967703761307</v>
+      </c>
+      <c r="J89">
+        <v>0.05457669172792038</v>
+      </c>
+      <c r="K89">
+        <v>-0.07292457460223907</v>
+      </c>
+      <c r="L89">
+        <v>-0.03720698062183662</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B90">
-        <v>0.09891614233213705</v>
+        <v>0.1314096046374889</v>
       </c>
       <c r="C90">
-        <v>-0.2685649920498592</v>
+        <v>0.2698933998669076</v>
       </c>
       <c r="D90">
-        <v>-0.06322400604347855</v>
+        <v>-0.01931690516358799</v>
       </c>
       <c r="E90">
-        <v>0.05124817743344198</v>
+        <v>0.0369234861605636</v>
       </c>
       <c r="F90">
-        <v>-0.06185477316833995</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.005705310886767049</v>
+      </c>
+      <c r="G90">
+        <v>-0.0284644246601588</v>
+      </c>
+      <c r="H90">
+        <v>-0.031541161508929</v>
+      </c>
+      <c r="I90">
+        <v>-0.02453106805693723</v>
+      </c>
+      <c r="J90">
+        <v>0.01245224363014637</v>
+      </c>
+      <c r="K90">
+        <v>-0.02856911776061036</v>
+      </c>
+      <c r="L90">
+        <v>-0.02290762823432909</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B91">
-        <v>0.09576365581775036</v>
+        <v>0.08235017953324274</v>
       </c>
       <c r="C91">
-        <v>0.009731919368264017</v>
+        <v>-0.04547708623849959</v>
       </c>
       <c r="D91">
-        <v>0.01759032389480072</v>
+        <v>0.003928556137836044</v>
       </c>
       <c r="E91">
-        <v>0.01133826589656792</v>
+        <v>-0.003607956274946918</v>
       </c>
       <c r="F91">
-        <v>0.006188661615851078</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.02065434273388398</v>
+      </c>
+      <c r="G91">
+        <v>0.01995317746351472</v>
+      </c>
+      <c r="H91">
+        <v>0.09754291051265088</v>
+      </c>
+      <c r="I91">
+        <v>0.02867975037218192</v>
+      </c>
+      <c r="J91">
+        <v>-0.02521325850837582</v>
+      </c>
+      <c r="K91">
+        <v>-0.03323838047564408</v>
+      </c>
+      <c r="L91">
+        <v>0.004824941447381614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B92">
-        <v>0.08368500923997178</v>
+        <v>0.1340723251276787</v>
       </c>
       <c r="C92">
-        <v>-0.3385404383081614</v>
+        <v>0.3246471739251202</v>
       </c>
       <c r="D92">
-        <v>-0.0398689882034327</v>
+        <v>-0.01146760990915505</v>
       </c>
       <c r="E92">
-        <v>0.08341672926916298</v>
+        <v>0.0507627657466018</v>
       </c>
       <c r="F92">
-        <v>-0.01727621703878398</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.01223010407218123</v>
+      </c>
+      <c r="G92">
+        <v>0.02270523136605103</v>
+      </c>
+      <c r="H92">
+        <v>0.03188390464650806</v>
+      </c>
+      <c r="I92">
+        <v>-0.03971857685410633</v>
+      </c>
+      <c r="J92">
+        <v>0.02972380460742678</v>
+      </c>
+      <c r="K92">
+        <v>-0.03464614381557999</v>
+      </c>
+      <c r="L92">
+        <v>-0.007559816782608804</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B93">
-        <v>0.08400996250424216</v>
+        <v>0.1364858278846581</v>
       </c>
       <c r="C93">
-        <v>-0.2792624292392936</v>
+        <v>0.3061455942081938</v>
       </c>
       <c r="D93">
-        <v>-0.026202185448</v>
+        <v>-0.0008953163776825419</v>
       </c>
       <c r="E93">
-        <v>0.04756305212802683</v>
+        <v>0.01923047216229478</v>
       </c>
       <c r="F93">
-        <v>-0.03154260749094095</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.005491835793561083</v>
+      </c>
+      <c r="G93">
+        <v>0.008203395446678878</v>
+      </c>
+      <c r="H93">
+        <v>-0.01758806318478711</v>
+      </c>
+      <c r="I93">
+        <v>-0.005446905549071459</v>
+      </c>
+      <c r="J93">
+        <v>0.005624616643676047</v>
+      </c>
+      <c r="K93">
+        <v>0.03237788454942585</v>
+      </c>
+      <c r="L93">
+        <v>-0.02540915626279123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B94">
-        <v>0.1091230799582012</v>
+        <v>0.1114687323201949</v>
       </c>
       <c r="C94">
-        <v>0.05474285556581827</v>
+        <v>-0.07028588377869585</v>
       </c>
       <c r="D94">
-        <v>0.01733780338370798</v>
+        <v>0.0122224314539541</v>
       </c>
       <c r="E94">
-        <v>0.03003452343727631</v>
+        <v>0.0208124177169777</v>
       </c>
       <c r="F94">
-        <v>0.01126011513713424</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.03119390375175911</v>
+      </c>
+      <c r="G94">
+        <v>0.04774826258919385</v>
+      </c>
+      <c r="H94">
+        <v>0.1291139347634068</v>
+      </c>
+      <c r="I94">
+        <v>0.01487585508886803</v>
+      </c>
+      <c r="J94">
+        <v>-0.0380280607384355</v>
+      </c>
+      <c r="K94">
+        <v>-0.02222927502380165</v>
+      </c>
+      <c r="L94">
+        <v>0.0104671771400531</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="B95">
-        <v>0.1168916702371665</v>
+        <v>0.1352174995909597</v>
       </c>
       <c r="C95">
-        <v>0.1013481804307462</v>
+        <v>-0.06674327834383686</v>
       </c>
       <c r="D95">
-        <v>0.07879936561801704</v>
+        <v>0.02211898352209385</v>
       </c>
       <c r="E95">
-        <v>0.07525990296615971</v>
+        <v>0.07260492503223294</v>
       </c>
       <c r="F95">
-        <v>0.007436812394183103</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.06049038495695289</v>
+      </c>
+      <c r="G95">
+        <v>-0.02011371161440106</v>
+      </c>
+      <c r="H95">
+        <v>-0.180983918891611</v>
+      </c>
+      <c r="I95">
+        <v>-0.1045846212095683</v>
+      </c>
+      <c r="J95">
+        <v>0.06227435290212179</v>
+      </c>
+      <c r="K95">
+        <v>7.087566260338961e-05</v>
+      </c>
+      <c r="L95">
+        <v>0.04765171507658802</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4345,142 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="B97">
-        <v>0.2797432196597061</v>
+        <v>0.1892073040471839</v>
       </c>
       <c r="C97">
-        <v>-0.1114801463503602</v>
+        <v>0.005600628900178526</v>
       </c>
       <c r="D97">
-        <v>0.004033725821148131</v>
+        <v>-0.4901712334455232</v>
       </c>
       <c r="E97">
-        <v>-0.8832577435513234</v>
+        <v>-0.7902167313692905</v>
       </c>
       <c r="F97">
-        <v>-0.004222466874792683</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>-0.1182091427472139</v>
+      </c>
+      <c r="G97">
+        <v>-0.02111778079856163</v>
+      </c>
+      <c r="H97">
+        <v>-0.07674640409838371</v>
+      </c>
+      <c r="I97">
+        <v>-0.05699498544584043</v>
+      </c>
+      <c r="J97">
+        <v>0.06416772372975488</v>
+      </c>
+      <c r="K97">
+        <v>-0.0671788500530069</v>
+      </c>
+      <c r="L97">
+        <v>-0.001054436783557461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B98">
-        <v>0.288787564677887</v>
+        <v>0.2775254328529453</v>
       </c>
       <c r="C98">
-        <v>0.09076869428907146</v>
+        <v>-0.1196391467571278</v>
       </c>
       <c r="D98">
-        <v>0.01170778075717813</v>
+        <v>0.1591407609652443</v>
       </c>
       <c r="E98">
-        <v>0.1089812365660823</v>
+        <v>-0.1184089855164648</v>
       </c>
       <c r="F98">
-        <v>0.4659063871104821</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.3065843464773564</v>
+      </c>
+      <c r="G98">
+        <v>0.2402143484539475</v>
+      </c>
+      <c r="H98">
+        <v>-0.2602150618151416</v>
+      </c>
+      <c r="I98">
+        <v>0.1494448861836416</v>
+      </c>
+      <c r="J98">
+        <v>0.05102831828390573</v>
+      </c>
+      <c r="K98">
+        <v>0.3946444167178075</v>
+      </c>
+      <c r="L98">
+        <v>-0.483418884187279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="B99">
-        <v>0.2250343309457068</v>
+        <v>0.1369215572612455</v>
       </c>
       <c r="C99">
-        <v>0.1903130211159653</v>
+        <v>-0.1128577530432814</v>
       </c>
       <c r="D99">
-        <v>-0.8162460551657424</v>
+        <v>-0.2927636436569287</v>
       </c>
       <c r="E99">
-        <v>0.003636902691584545</v>
+        <v>0.09809914044892702</v>
       </c>
       <c r="F99">
-        <v>0.2859878709071968</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.7744810671775783</v>
+      </c>
+      <c r="G99">
+        <v>-0.2014928146000036</v>
+      </c>
+      <c r="H99">
+        <v>0.1182868401547822</v>
+      </c>
+      <c r="I99">
+        <v>-0.04864228660554373</v>
+      </c>
+      <c r="J99">
+        <v>0.002702241216430191</v>
+      </c>
+      <c r="K99">
+        <v>0.06122961610059841</v>
+      </c>
+      <c r="L99">
+        <v>0.1771079989274482</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,30 +4497,66 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B101">
-        <v>0.04835774626337652</v>
+        <v>0.0475277308908713</v>
       </c>
       <c r="C101">
-        <v>-0.0007445819633375795</v>
+        <v>-0.01719042899343052</v>
       </c>
       <c r="D101">
-        <v>0.02027648289003971</v>
+        <v>0.007476591866717436</v>
       </c>
       <c r="E101">
-        <v>0.01298707661189242</v>
+        <v>0.02387661761245534</v>
       </c>
       <c r="F101">
-        <v>-0.03808972111610092</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.04166217235764137</v>
+      </c>
+      <c r="G101">
+        <v>-0.02509212748362273</v>
+      </c>
+      <c r="H101">
+        <v>0.04579379618178403</v>
+      </c>
+      <c r="I101">
+        <v>-0.04811456285711434</v>
+      </c>
+      <c r="J101">
+        <v>-0.004269563130358604</v>
+      </c>
+      <c r="K101">
+        <v>0.0272883491611004</v>
+      </c>
+      <c r="L101">
+        <v>-0.01387603129694187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2737,10 +4573,28 @@
       <c r="F102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:6">
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4611,28 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4647,24 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
         <v>0</v>
       </c>
     </row>
